--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>CaseID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>hrbp</t>
   </si>
   <si>
-    <t>8d9267fe-b4b7-11e7-83f4-5254001aba5d</t>
-  </si>
-  <si>
     <t>is_deleted</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
   </si>
   <si>
     <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053","service_order_id":"","timeline_id":""}</t>
   </si>
   <si>
     <t>ancestors</t>
@@ -166,6 +157,27 @@
   <si>
     <t>/hr/v1/formrecords/{uuid}?form=organization</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程2</t>
+  </si>
+  <si>
+    <t>流程2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试16</t>
+  </si>
+  <si>
+    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
   </si>
 </sst>
 </file>
@@ -496,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E9:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,19 +544,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,7 +621,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -633,6 +645,35 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -644,10 +685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,16 +702,15 @@
     <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="87.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,27 +742,24 @@
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -749,25 +786,69 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>CaseID</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>流程1</t>
   </si>
   <si>
     <t>parent_organization_ID</t>
@@ -167,17 +164,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流程2</t>
-  </si>
-  <si>
-    <t>流程2</t>
+    <t>测试16</t>
+  </si>
+  <si>
+    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>部门1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试16</t>
-  </si>
-  <si>
-    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
+    <t>部门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,19 +542,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -574,7 +572,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,21 +605,21 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -633,16 +631,16 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -650,7 +648,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -662,16 +660,16 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -687,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,140 +713,140 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>CaseID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>record_id</t>
   </si>
   <si>
-    <t>${addDepartment.uuid}</t>
-  </si>
-  <si>
     <t>opt</t>
   </si>
   <si>
@@ -170,11 +167,31 @@
     <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
   </si>
   <si>
-    <t>部门1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门2</t>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -542,19 +559,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -571,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +598,7 @@
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
@@ -596,83 +613,83 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +703,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,10 +717,10 @@
     <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -713,140 +730,140 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>CaseID</t>
   </si>
@@ -192,6 +192,22 @@
   </si>
   <si>
     <t>organization_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +540,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,10 +602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,6 +708,35 @@
         <v>47</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -700,10 +745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,6 +911,53 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>CaseID</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
   </si>
   <si>
     <t>ancestors</t>
@@ -539,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,19 +569,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -605,7 +599,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,10 +646,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -664,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -676,15 +670,15 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -693,27 +687,27 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -722,19 +716,19 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -745,10 +739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -764,13 +758,12 @@
     <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,21 +798,18 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
       </c>
       <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -846,33 +836,30 @@
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
       </c>
       <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
       </c>
       <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -887,39 +874,36 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
         <v>31</v>
       </c>
       <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -934,28 +918,25 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
       </c>
       <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
       </c>
       <c r="N4" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>CaseID</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +546,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,7 +719,7 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -716,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -728,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +754,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -924,13 +936,13 @@
         <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
         <v>33</v>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>headcount</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -214,6 +211,10 @@
   </si>
   <si>
     <t>${organization_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -581,19 +582,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -611,7 +612,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,106 +642,106 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -753,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,175 +781,175 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
-      </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -71,15 +71,9 @@
     <t>parent_organization_ID</t>
   </si>
   <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-  </si>
-  <si>
     <t>leader_ID</t>
   </si>
   <si>
-    <t>7e2f1608-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>hrbp_ID</t>
   </si>
   <si>
@@ -92,21 +86,12 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
     <t>leader</t>
   </si>
   <si>
-    <t>测试15</t>
-  </si>
-  <si>
     <t>parent_organization</t>
   </si>
   <si>
-    <t>北京微迅</t>
-  </si>
-  <si>
     <t>hrbp</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>ancestors</t>
   </si>
   <si>
-    <t>["b89d7d04-0f75-11e7-9aa4-00163e007053"]</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -148,16 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试16</t>
-  </si>
-  <si>
-    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>${organization_1.uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,30 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>organization_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EditSon_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侯龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${organization_3.uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +167,58 @@
   </si>
   <si>
     <t>!!Int10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.user_name}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.company_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.parent_organization_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.company_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["$csv{data.Tenant.microfastup.company_name}"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,19 +586,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -612,7 +616,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,100 +652,100 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -754,24 +758,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -781,175 +785,175 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
         <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>CaseID</t>
   </si>
@@ -218,7 +218,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["$csv{data.Tenant.microfastup.company_name}"]</t>
+    <t>$csv{data.Tenant.microfastup.parent_organization_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["$csv{data.Tenant.microfastup.parent_organization_ID}"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,7 +630,7 @@
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
@@ -678,7 +682,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -707,7 +711,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>51</v>
@@ -736,7 +740,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -758,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,7 +780,7 @@
     <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -844,7 +848,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>50</v>
@@ -862,7 +866,7 @@
         <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -906,7 +910,7 @@
         <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -950,7 +954,7 @@
         <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>

--- a/sources/case/EditSon.xlsx
+++ b/sources/case/EditSon.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>CaseID</t>
   </si>
@@ -130,42 +130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EditSon_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>!!Int10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,16 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-  </si>
-  <si>
     <t>$csv{data.Tenant.microfastup.company_name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +181,28 @@
   </si>
   <si>
     <t>["$csv{data.Tenant.microfastup.parent_organization_ID}"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_3.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_3.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_2.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_2.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,21 +599,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -670,28 +650,28 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
+      <c r="D2">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -699,57 +679,57 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
+      <c r="D4">
+        <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -762,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,9 +757,9 @@
     <col min="7" max="7" width="48.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -833,31 +813,31 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -866,7 +846,7 @@
         <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -877,40 +857,40 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -918,43 +898,43 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
